--- a/VerificationMatrix.xlsx
+++ b/VerificationMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\MatlabCode\projects\BrainMetabolismModeling\BrainMetabolismModeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6172C722-4A19-4566-8A6F-9B68DB9F8649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56226076-3530-4A75-9F5F-01E76614F800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>addPenaltiesToModel.m</t>
   </si>
@@ -123,6 +123,21 @@
     <t>Ratio estimation: fairly simple modeling setup, difficult to test. The code behaves as expected, this is enough verification.
 2B-D: The produced results are very similar to a simpler simulation done in R (see GenUtilizationFigs.R).
 Half-lives: Difficult to test, we have no ground truth. The code is simple and has been reviewed, and also gives reasonable output.</t>
+  </si>
+  <si>
+    <t>Except for the tests for Fig. 2B-D (which we don't test, they are tests), the code is simple figure generation code, no need to test.</t>
+  </si>
+  <si>
+    <t>The code is simple figure generation code, no need to test.</t>
+  </si>
+  <si>
+    <t>Trivial, no need to test.</t>
+  </si>
+  <si>
+    <t>This is a non-complicated simulation, given that the model is correct. Difficult to test, but the output looks as expected.</t>
+  </si>
+  <si>
+    <t>This is a non-complicated simulation, given that the model is correct. Difficult to test, but the output looks reasonable. The scaling of ATP production has been reviewed, looks ok.</t>
   </si>
 </sst>
 </file>
@@ -455,7 +470,7 @@
   <dimension ref="A3:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,13 +531,17 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -568,7 +587,9 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -582,13 +603,17 @@
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
